--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F4EE92-AB63-4585-BAAC-14918572E99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0FBA30-173E-4EE6-B103-A4E4D136B07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="13">
   <si>
     <t>ChapterId</t>
   </si>
@@ -64,18 +64,6 @@
   </si>
   <si>
     <t>1,2,3</t>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,3,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -411,7 +399,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -466,15 +454,13 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0FBA30-173E-4EE6-B103-A4E4D136B07C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77DDEE1-2229-46AD-8184-D67D1BF15221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ChapterInfoDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="ChapterInfoExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>ChapterId</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>1,1,1,1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -399,7 +387,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -429,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -496,15 +484,13 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
+      <c r="F3" s="4">
+        <v>2</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -540,15 +526,13 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
+      <c r="F4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -584,15 +568,13 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
+      <c r="F5" s="7">
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -635,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -679,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -723,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -767,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -811,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -855,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -899,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -943,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -987,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1031,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1075,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1119,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1163,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -1207,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -1251,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -1295,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -1339,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -1383,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -1427,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -1471,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -1515,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -1559,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -1603,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -1647,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -1691,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -1735,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -1779,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -1823,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -1867,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77DDEE1-2229-46AD-8184-D67D1BF15221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBE2A8D-F6A6-4FD7-A178-5B644570004E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>ChapterId</t>
   </si>
@@ -387,7 +387,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -610,15 +610,13 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
+      <c r="F6" s="7">
+        <v>1</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -654,15 +652,13 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
+      <c r="F7" s="7">
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -698,15 +694,13 @@
       <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
+      <c r="F8" s="7">
+        <v>1</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -742,15 +736,13 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
+      <c r="F9" s="7">
+        <v>1</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -786,15 +778,13 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>7</v>
+      <c r="F10" s="10">
+        <v>1</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -830,15 +820,13 @@
       <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
+      <c r="F11" s="10">
+        <v>1</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8096AFE0-2EC1-4FE9-A152-348CD88C6873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ChapterInfoExcelDatas" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="시트1" sheetId="2" r:id="rId5"/>
+    <sheet name="ChapterInfoExcelDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="시트1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjsmCpHPbKAJxw9mD9uWw5rmOublg=="/>
@@ -17,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>ChapterId</t>
   </si>
@@ -191,31 +200,51 @@
   </si>
   <si>
     <t>0,5,1,2,3,4</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -223,7 +252,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -281,86 +310,67 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -550,30 +560,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.29"/>
-    <col customWidth="1" min="2" max="2" width="7.43"/>
-    <col customWidth="1" min="3" max="3" width="7.57"/>
-    <col customWidth="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="10.71"/>
-    <col customWidth="1" min="6" max="6" width="22.29"/>
-    <col customWidth="1" min="7" max="7" width="9.86"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,27 +613,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
@@ -641,21 +655,21 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
@@ -683,21 +697,21 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
@@ -725,21 +739,21 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
@@ -767,26 +781,28 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -807,21 +823,21 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>15</v>
@@ -849,21 +865,21 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>17</v>
@@ -893,21 +909,21 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>20</v>
@@ -937,21 +953,21 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>21</v>
@@ -981,21 +997,21 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>23</v>
@@ -1025,21 +1041,21 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>24</v>
@@ -1067,21 +1083,21 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>26</v>
@@ -1109,21 +1125,21 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>27</v>
@@ -1153,21 +1169,21 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="9">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>30</v>
@@ -1197,21 +1213,21 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="9">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>33</v>
@@ -1241,21 +1257,21 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="9">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>26</v>
@@ -1283,21 +1299,21 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="9">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>34</v>
@@ -1325,21 +1341,21 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="9">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>35</v>
@@ -1369,21 +1385,21 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="11">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C20" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>37</v>
@@ -1413,21 +1429,21 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="11">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>38</v>
@@ -1457,21 +1473,21 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="11">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>39</v>
@@ -1501,21 +1517,21 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="11">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>42</v>
@@ -1545,21 +1561,21 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="11">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C24" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>44</v>
@@ -1589,21 +1605,21 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="14">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C25" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E25" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>28</v>
@@ -1631,21 +1647,21 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="14">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C26" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>46</v>
@@ -1675,21 +1691,21 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="14">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C27" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>48</v>
@@ -1719,21 +1735,21 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="14">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C28" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D28" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>49</v>
@@ -1763,21 +1779,21 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="14">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C29" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D29" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>50</v>
@@ -1807,21 +1823,21 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="16">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C30" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E30" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>51</v>
@@ -1851,21 +1867,21 @@
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="16">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C31" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>52</v>
@@ -1895,21 +1911,21 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="16">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C32" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D32" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>53</v>
@@ -1939,21 +1955,21 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="16">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C33" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D33" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E33" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>54</v>
@@ -1983,21 +1999,21 @@
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="16">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C34" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D34" s="16">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E34" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>56</v>
@@ -2006,7 +2022,7 @@
         <v>57</v>
       </c>
       <c r="H34" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -2027,1065 +2043,1066 @@
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="C9:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="7.86"/>
-    <col customWidth="1" min="4" max="4" width="10.29"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D9" s="19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C10" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D11" s="19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C12" s="20">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D13" s="19">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C14" s="20">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D15" s="19">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C16" s="20">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D17" s="19">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="20">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D19" s="19">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" s="20">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D21" s="19">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D23" s="21">
-        <v>13.0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8096AFE0-2EC1-4FE9-A152-348CD88C6873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8CA815-DCBC-4BFC-BE72-FB4DF41A50BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>ChapterId</t>
   </si>
@@ -52,157 +52,191 @@
     <t>BackIds</t>
   </si>
   <si>
-    <t>0,0</t>
-  </si>
-  <si>
     <t>0,1</t>
   </si>
   <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
     <t>0,1,2</t>
   </si>
   <si>
-    <t>0,0,0,0</t>
-  </si>
-  <si>
     <t>0,1,2,3</t>
   </si>
   <si>
-    <t>0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0</t>
-  </si>
-  <si>
     <t>0,1,2,3,4,5</t>
   </si>
   <si>
-    <t>0,0,0,1,1</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
     <t>2,3</t>
   </si>
   <si>
-    <t>0,0,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1</t>
-  </si>
-  <si>
     <t>0,1,5,6</t>
   </si>
   <si>
+    <t>0,1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>0,6,3</t>
+  </si>
+  <si>
+    <t>0,1,2,4,5,6</t>
+  </si>
+  <si>
+    <t>0,5,1,2,3,4</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5,6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2,2,2,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,2,2,2</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,2,2</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>1,1,1,1,2,2,2</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>1,1,2,2,2,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,2,2,2,2</t>
-  </si>
-  <si>
-    <t>2,2,2,2,3,3</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>0,0,0,0,3,3,3</t>
-  </si>
-  <si>
-    <t>0,0,0,3,3,3,3</t>
-  </si>
-  <si>
-    <t>0,0,3,3,3,3,3</t>
-  </si>
-  <si>
-    <t>0,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2,2,3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,4,4,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2,3,3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3,3,3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3,4,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,4,4,4,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,4,4,4,4,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,4,4,4,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,4,4,4,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>1,1,1,3,3,3,3</t>
-  </si>
-  <si>
-    <t>3,4,5,6</t>
-  </si>
-  <si>
-    <t>2,2,2,3,3,3,3</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>0,0,0,1,1,1,2,2,4</t>
-  </si>
-  <si>
-    <t>0,6,3</t>
-  </si>
-  <si>
-    <t>1,1,1,1,2,2,2,2,2</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>2,2,4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,2,2,2,2,2,3,3,3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,2,2,3,3,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2,3,3,3,3,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,5,5,5,5,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>0,1,2,4,5,6</t>
-  </si>
-  <si>
-    <t>0,0,1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>0,5,1,2,3,4</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,4,4,4,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2,2,2,2,2,2,2,2,2,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5,5,5,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2,3,4,5,6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -352,6 +386,12 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -573,7 +613,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -630,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -671,11 +711,11 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -713,11 +753,11 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
+      <c r="F4" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
@@ -755,11 +795,11 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
+      <c r="F5" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -797,11 +837,11 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
+      <c r="F6" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
@@ -839,11 +879,11 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
+      <c r="F7" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -881,14 +921,14 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
+      <c r="F8" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -925,14 +965,14 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
+      <c r="F9" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -969,14 +1009,14 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
+      <c r="F10" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1013,14 +1053,14 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
+      <c r="F11" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1057,12 +1097,12 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
+      <c r="F12" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1099,11 +1139,11 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>26</v>
+      <c r="F13" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
@@ -1141,14 +1181,14 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>27</v>
+      <c r="F14" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1185,14 +1225,14 @@
       <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>30</v>
+      <c r="F15" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1229,14 +1269,14 @@
       <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>33</v>
+      <c r="F16" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1273,11 +1313,11 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>26</v>
+      <c r="F17" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1315,12 +1355,12 @@
       <c r="E18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>34</v>
+      <c r="F18" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1357,14 +1397,14 @@
       <c r="E19" s="9">
         <v>1</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>35</v>
+      <c r="F19" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1401,14 +1441,14 @@
       <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>37</v>
+      <c r="F20" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -1445,14 +1485,14 @@
       <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>38</v>
+      <c r="F21" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -1489,14 +1529,14 @@
       <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>39</v>
+      <c r="F22" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1533,14 +1573,14 @@
       <c r="E23" s="11">
         <v>1</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>42</v>
+      <c r="F23" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -1577,14 +1617,14 @@
       <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>44</v>
+      <c r="F24" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="11"/>
@@ -1621,11 +1661,11 @@
       <c r="E25" s="14">
         <v>1</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>28</v>
+      <c r="F25" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1663,14 +1703,14 @@
       <c r="E26" s="14">
         <v>1</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>46</v>
+      <c r="F26" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -1707,14 +1747,14 @@
       <c r="E27" s="14">
         <v>1</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>48</v>
+      <c r="F27" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -1751,14 +1791,14 @@
       <c r="E28" s="14">
         <v>1</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>49</v>
+      <c r="F28" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -1795,14 +1835,14 @@
       <c r="E29" s="14">
         <v>1</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>50</v>
+      <c r="F29" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1839,14 +1879,14 @@
       <c r="E30" s="16">
         <v>1</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>51</v>
+      <c r="F30" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -1883,14 +1923,14 @@
       <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>52</v>
+      <c r="F31" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -1927,14 +1967,14 @@
       <c r="E32" s="16">
         <v>1</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>53</v>
+      <c r="F32" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -1971,14 +2011,14 @@
       <c r="E33" s="16">
         <v>1</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>54</v>
+      <c r="F33" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -2015,11 +2055,11 @@
       <c r="E34" s="16">
         <v>1</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>56</v>
+      <c r="F34" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H34" s="18">
         <v>3</v>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8CA815-DCBC-4BFC-BE72-FB4DF41A50BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ChapterInfoExcelDatas" sheetId="1" r:id="rId1"/>
-    <sheet name="시트1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chapter1InfoExcelDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="Chapter2InfoExcelDatas" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
   <si>
     <t>ChapterId</t>
   </si>
@@ -113,138 +112,142 @@
   </si>
   <si>
     <t>0,1,2,3,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,2,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,2,2,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,2,2,2,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,2,2,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,2,2,2,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,3,3,3,3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,2,2,3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,4,4,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,2,3,3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,2,3,3,3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,3,3,3,3,3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,3,3,3,4,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,4,4,4,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,4,4,4,4,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,4,4,4,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,3,3,4,4,4,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,2,2,2,3,3,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,2,3,3,3,3,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5,5,5,5,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,3,5,5,5,5,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,1,1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3,3,3,3,3,3,4,4,4,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2,2,2,2,2,2,2,2,2,2,2,2,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5,5,5,5,5,5,5,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,1,2,3,4,5,6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2,2,2,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -260,15 +263,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -281,7 +275,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,18 +324,6 @@
         <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -362,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -382,16 +364,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -606,28 +585,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -695,7 +674,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -711,7 +690,7 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -737,7 +716,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -753,7 +732,7 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -779,7 +758,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -795,7 +774,7 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -821,7 +800,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -837,10 +816,10 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="6"/>
@@ -863,7 +842,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -879,7 +858,7 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="19" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -905,7 +884,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -921,7 +900,7 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -949,7 +928,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -965,7 +944,7 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -993,7 +972,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1009,7 +988,7 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -1037,7 +1016,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -1053,7 +1032,7 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1081,7 +1060,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -1097,7 +1076,7 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="21" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="8"/>
@@ -1123,7 +1102,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -1139,7 +1118,7 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1165,7 +1144,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -1181,7 +1160,7 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1209,7 +1188,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -1225,7 +1204,7 @@
       <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="24" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -1253,7 +1232,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -1269,7 +1248,7 @@
       <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="24" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -1297,7 +1276,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -1313,7 +1292,7 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="24" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="10" t="s">
@@ -1339,7 +1318,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -1355,7 +1334,7 @@
       <c r="E18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="9"/>
@@ -1381,7 +1360,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>1</v>
       </c>
@@ -1397,7 +1376,7 @@
       <c r="E19" s="9">
         <v>1</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="24" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="10" t="s">
@@ -1425,7 +1404,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -1441,7 +1420,7 @@
       <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="23" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -1469,7 +1448,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -1485,7 +1464,7 @@
       <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="23" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -1513,7 +1492,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -1529,7 +1508,7 @@
       <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="12" t="s">
@@ -1557,7 +1536,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -1573,7 +1552,7 @@
       <c r="E23" s="11">
         <v>1</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -1601,7 +1580,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -1617,7 +1596,7 @@
       <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="23" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -1645,7 +1624,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>1</v>
       </c>
@@ -1661,7 +1640,7 @@
       <c r="E25" s="14">
         <v>1</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="25" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="15" t="s">
@@ -1687,7 +1666,7 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>1</v>
       </c>
@@ -1703,7 +1682,7 @@
       <c r="E26" s="14">
         <v>1</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="25" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="15" t="s">
@@ -1731,7 +1710,7 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>1</v>
       </c>
@@ -1747,7 +1726,7 @@
       <c r="E27" s="14">
         <v>1</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="25" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="15" t="s">
@@ -1775,7 +1754,7 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>1</v>
       </c>
@@ -1791,7 +1770,7 @@
       <c r="E28" s="14">
         <v>1</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="25" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="15" t="s">
@@ -1819,7 +1798,7 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>1</v>
       </c>
@@ -1835,7 +1814,7 @@
       <c r="E29" s="14">
         <v>1</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="15" t="s">
@@ -1863,7 +1842,7 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>1</v>
       </c>
@@ -1879,7 +1858,7 @@
       <c r="E30" s="16">
         <v>1</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="17" t="s">
@@ -1907,7 +1886,7 @@
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -1923,7 +1902,7 @@
       <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -1951,7 +1930,7 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>1</v>
       </c>
@@ -1967,7 +1946,7 @@
       <c r="E32" s="16">
         <v>1</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="22" t="s">
         <v>57</v>
       </c>
       <c r="G32" s="17" t="s">
@@ -1995,7 +1974,7 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>1</v>
       </c>
@@ -2011,7 +1990,7 @@
       <c r="E33" s="16">
         <v>1</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G33" s="17" t="s">
@@ -2039,7 +2018,7 @@
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>1</v>
       </c>
@@ -2055,7 +2034,7 @@
       <c r="E34" s="16">
         <v>1</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="18" t="s">
@@ -2083,1066 +2062,3426 @@
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C9:D23"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="19">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="20">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="19">
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="20">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="19">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="20">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="19">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="20">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="21">
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
+      <c r="H10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="11">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11">
+        <v>5</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>2</v>
+      </c>
+      <c r="B25" s="14">
+        <v>24</v>
+      </c>
+      <c r="C25" s="14">
+        <v>5</v>
+      </c>
+      <c r="D25" s="14">
+        <v>5</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>2</v>
+      </c>
+      <c r="B26" s="14">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14">
+        <v>5</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14">
+        <v>26</v>
+      </c>
+      <c r="C27" s="14">
+        <v>5</v>
+      </c>
+      <c r="D27" s="14">
+        <v>5</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14">
+        <v>27</v>
+      </c>
+      <c r="C28" s="14">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14">
+        <v>5</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>2</v>
+      </c>
+      <c r="B29" s="14">
+        <v>28</v>
+      </c>
+      <c r="C29" s="14">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14">
+        <v>5</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>2</v>
+      </c>
+      <c r="B30" s="16">
+        <v>29</v>
+      </c>
+      <c r="C30" s="16">
+        <v>5</v>
+      </c>
+      <c r="D30" s="16">
+        <v>5</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>2</v>
+      </c>
+      <c r="B31" s="16">
+        <v>30</v>
+      </c>
+      <c r="C31" s="16">
+        <v>5</v>
+      </c>
+      <c r="D31" s="16">
+        <v>5</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>2</v>
+      </c>
+      <c r="B32" s="16">
+        <v>31</v>
+      </c>
+      <c r="C32" s="16">
+        <v>5</v>
+      </c>
+      <c r="D32" s="16">
+        <v>5</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>2</v>
+      </c>
+      <c r="B33" s="16">
+        <v>32</v>
+      </c>
+      <c r="C33" s="16">
+        <v>5</v>
+      </c>
+      <c r="D33" s="16">
+        <v>5</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>2</v>
+      </c>
+      <c r="B34" s="16">
+        <v>33</v>
+      </c>
+      <c r="C34" s="16">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16">
+        <v>5</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="18">
+        <v>3</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD673697-5368-47BA-95DB-30682B25DE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter1InfoExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
   <si>
     <t>ChapterId</t>
   </si>
@@ -240,13 +241,21 @@
   </si>
   <si>
     <t>2,2,2,2,2,2,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearGoldReward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearExpReward</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -257,10 +266,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -344,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -371,6 +382,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -585,28 +597,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +645,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -655,8 +675,12 @@
         <v>0</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -674,7 +698,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -697,8 +721,12 @@
         <v>8</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -716,7 +744,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -739,8 +767,12 @@
         <v>9</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -758,7 +790,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -781,8 +813,12 @@
         <v>10</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -800,7 +836,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -823,8 +859,12 @@
         <v>28</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -842,7 +882,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -865,8 +905,12 @@
         <v>11</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -884,7 +928,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -909,8 +953,12 @@
       <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="5">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -928,7 +976,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -953,8 +1001,12 @@
       <c r="H9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -972,7 +1024,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -997,8 +1049,12 @@
       <c r="H10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1016,7 +1072,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -1041,8 +1097,12 @@
       <c r="H11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="7">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1060,7 +1120,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -1083,8 +1143,12 @@
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="7">
+        <v>11</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1102,7 +1166,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -1125,8 +1189,12 @@
         <v>11</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="7">
+        <v>12</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1144,7 +1212,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -1169,8 +1237,12 @@
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="7">
+        <v>13</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -1188,7 +1260,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -1213,8 +1285,12 @@
       <c r="H15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="9">
+        <v>14</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -1232,7 +1308,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -1257,8 +1333,12 @@
       <c r="H16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="9">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -1276,7 +1356,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -1299,8 +1379,12 @@
         <v>11</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="9">
+        <v>16</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -1318,7 +1402,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -1341,8 +1425,12 @@
       <c r="H18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="9">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -1360,7 +1448,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1</v>
       </c>
@@ -1385,8 +1473,12 @@
       <c r="H19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="9">
+        <v>18</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -1404,7 +1496,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -1429,8 +1521,12 @@
       <c r="H20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="11">
+        <v>19</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -1448,7 +1544,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -1473,8 +1569,12 @@
       <c r="H21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="I21" s="11">
+        <v>20</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -1492,7 +1592,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -1517,8 +1617,12 @@
       <c r="H22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" s="11">
+        <v>21</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -1536,7 +1640,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -1561,8 +1665,12 @@
       <c r="H23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="11">
+        <v>22</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -1580,7 +1688,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -1605,8 +1713,12 @@
       <c r="H24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="11"/>
+      <c r="I24" s="13">
+        <v>23</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -1624,7 +1736,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>1</v>
       </c>
@@ -1647,8 +1759,12 @@
         <v>16</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="I25" s="14">
+        <v>24</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -1666,7 +1782,7 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>1</v>
       </c>
@@ -1691,8 +1807,12 @@
       <c r="H26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="I26" s="14">
+        <v>25</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -1710,7 +1830,7 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>1</v>
       </c>
@@ -1735,8 +1855,12 @@
       <c r="H27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="I27" s="14">
+        <v>26</v>
+      </c>
+      <c r="J27" s="14">
+        <v>1</v>
+      </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
@@ -1754,7 +1878,7 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>1</v>
       </c>
@@ -1779,8 +1903,12 @@
       <c r="H28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="I28" s="14">
+        <v>27</v>
+      </c>
+      <c r="J28" s="14">
+        <v>1</v>
+      </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -1798,7 +1926,7 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>1</v>
       </c>
@@ -1823,8 +1951,12 @@
       <c r="H29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="I29" s="14">
+        <v>28</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -1842,7 +1974,7 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>1</v>
       </c>
@@ -1867,8 +1999,12 @@
       <c r="H30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="16">
+        <v>29</v>
+      </c>
+      <c r="J30" s="16">
+        <v>1</v>
+      </c>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -1886,7 +2022,7 @@
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -1911,8 +2047,12 @@
       <c r="H31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="16">
+        <v>30</v>
+      </c>
+      <c r="J31" s="16">
+        <v>1</v>
+      </c>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -1930,7 +2070,7 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>1</v>
       </c>
@@ -1955,8 +2095,12 @@
       <c r="H32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="16">
+        <v>31</v>
+      </c>
+      <c r="J32" s="16">
+        <v>1</v>
+      </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -1974,7 +2118,7 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>1</v>
       </c>
@@ -1999,8 +2143,12 @@
       <c r="H33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="I33" s="16">
+        <v>32</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -2018,7 +2166,7 @@
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>1</v>
       </c>
@@ -2043,8 +2191,12 @@
       <c r="H34" s="18">
         <v>3</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="I34" s="16">
+        <v>33</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1</v>
+      </c>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -2062,972 +2214,972 @@
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3036,28 +3188,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3082,8 +3234,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -3106,8 +3264,12 @@
         <v>0</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -3125,7 +3287,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3148,8 +3310,12 @@
         <v>8</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -3167,7 +3333,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3190,8 +3356,12 @@
         <v>9</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -3209,7 +3379,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -3232,8 +3402,12 @@
         <v>10</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -3251,7 +3425,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3274,8 +3448,12 @@
         <v>28</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -3293,7 +3471,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -3316,8 +3494,12 @@
         <v>11</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -3335,7 +3517,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -3360,8 +3542,12 @@
       <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="5">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -3379,7 +3565,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -3404,8 +3590,12 @@
       <c r="H9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -3423,7 +3613,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -3448,8 +3638,12 @@
       <c r="H10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -3467,7 +3661,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -3492,8 +3686,12 @@
       <c r="H11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="7">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -3511,7 +3709,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>2</v>
       </c>
@@ -3534,8 +3732,12 @@
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="7">
+        <v>11</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -3553,7 +3755,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>2</v>
       </c>
@@ -3576,8 +3778,12 @@
         <v>11</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="7">
+        <v>12</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -3595,7 +3801,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>2</v>
       </c>
@@ -3620,8 +3826,12 @@
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="7">
+        <v>13</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -3639,7 +3849,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -3664,8 +3874,12 @@
       <c r="H15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="9">
+        <v>14</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -3683,7 +3897,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -3708,8 +3922,12 @@
       <c r="H16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="9">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -3727,7 +3945,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>2</v>
       </c>
@@ -3750,8 +3968,12 @@
         <v>11</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="9">
+        <v>16</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -3769,7 +3991,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2</v>
       </c>
@@ -3792,8 +4014,12 @@
       <c r="H18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="9">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -3811,7 +4037,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2</v>
       </c>
@@ -3836,8 +4062,12 @@
       <c r="H19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="9">
+        <v>18</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3855,7 +4085,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>2</v>
       </c>
@@ -3880,8 +4110,12 @@
       <c r="H20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="11">
+        <v>19</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -3899,7 +4133,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>2</v>
       </c>
@@ -3924,8 +4158,12 @@
       <c r="H21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="I21" s="11">
+        <v>20</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -3943,7 +4181,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>2</v>
       </c>
@@ -3968,8 +4206,12 @@
       <c r="H22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="I22" s="11">
+        <v>21</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -3987,7 +4229,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>2</v>
       </c>
@@ -4012,8 +4254,12 @@
       <c r="H23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="11">
+        <v>22</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -4031,7 +4277,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -4056,8 +4302,12 @@
       <c r="H24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="11"/>
+      <c r="I24" s="13">
+        <v>23</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -4075,7 +4325,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>2</v>
       </c>
@@ -4098,8 +4348,12 @@
         <v>16</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="I25" s="14">
+        <v>24</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -4117,7 +4371,7 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>2</v>
       </c>
@@ -4142,8 +4396,12 @@
       <c r="H26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="I26" s="14">
+        <v>25</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -4161,7 +4419,7 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>2</v>
       </c>
@@ -4186,8 +4444,12 @@
       <c r="H27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="I27" s="14">
+        <v>26</v>
+      </c>
+      <c r="J27" s="14">
+        <v>1</v>
+      </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
@@ -4205,7 +4467,7 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>2</v>
       </c>
@@ -4230,8 +4492,12 @@
       <c r="H28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="I28" s="14">
+        <v>27</v>
+      </c>
+      <c r="J28" s="14">
+        <v>1</v>
+      </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -4249,7 +4515,7 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>2</v>
       </c>
@@ -4274,8 +4540,12 @@
       <c r="H29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="I29" s="14">
+        <v>28</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -4293,7 +4563,7 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>2</v>
       </c>
@@ -4318,8 +4588,12 @@
       <c r="H30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="16">
+        <v>29</v>
+      </c>
+      <c r="J30" s="16">
+        <v>1</v>
+      </c>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -4337,7 +4611,7 @@
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>2</v>
       </c>
@@ -4362,8 +4636,12 @@
       <c r="H31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="16">
+        <v>30</v>
+      </c>
+      <c r="J31" s="16">
+        <v>1</v>
+      </c>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
@@ -4381,7 +4659,7 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>2</v>
       </c>
@@ -4406,8 +4684,12 @@
       <c r="H32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="16">
+        <v>31</v>
+      </c>
+      <c r="J32" s="16">
+        <v>1</v>
+      </c>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -4425,7 +4707,7 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>2</v>
       </c>
@@ -4450,8 +4732,12 @@
       <c r="H33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="I33" s="16">
+        <v>32</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -4469,7 +4755,7 @@
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>2</v>
       </c>
@@ -4494,8 +4780,12 @@
       <c r="H34" s="18">
         <v>3</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="I34" s="16">
+        <v>33</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1</v>
+      </c>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -4513,972 +4803,972 @@
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Chapter/ChapterInfoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD673697-5368-47BA-95DB-30682B25DE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE0A963-295D-4E5B-BB74-A49635969BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
   <si>
     <t>ChapterId</t>
   </si>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>ClearExpReward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +608,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -944,8 +948,8 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>34</v>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -960,7 +964,9 @@
         <v>1</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -992,8 +998,8 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>35</v>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>9</v>
@@ -1008,7 +1014,9 @@
         <v>1</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1040,8 +1048,8 @@
       <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>36</v>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -1056,7 +1064,9 @@
         <v>1</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1088,8 +1098,8 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>37</v>
+      <c r="F11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>9</v>
@@ -1104,7 +1114,9 @@
         <v>1</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1136,8 +1148,8 @@
       <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>38</v>
+      <c r="F12" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -1150,7 +1162,9 @@
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1182,8 +1196,8 @@
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>39</v>
+      <c r="F13" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>11</v>
@@ -1196,7 +1210,9 @@
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1228,8 +1244,8 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>40</v>
+      <c r="F14" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>16</v>
@@ -1244,7 +1260,9 @@
         <v>1</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1276,8 +1294,8 @@
       <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>42</v>
+      <c r="F15" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>18</v>
@@ -1292,7 +1310,9 @@
         <v>1</v>
       </c>
       <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -1324,8 +1344,8 @@
       <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>43</v>
+      <c r="F16" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>13</v>
@@ -1340,7 +1360,9 @@
         <v>1</v>
       </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -1372,8 +1394,8 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
+      <c r="F17" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>11</v>
@@ -1386,7 +1408,9 @@
         <v>1</v>
       </c>
       <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
